--- a/emotion_model_optimization.xlsx
+++ b/emotion_model_optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Project 4 local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C9857C-4C30-4D44-9256-CB3FD1D93146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C82DFD-1ABB-41AD-A679-8F61EF44E42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{AD8230CB-9583-4BED-A787-320CD1E24D8F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="57">
   <si>
     <t>Model Name</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Dropout, 0.1</t>
   </si>
   <si>
-    <t>Dense, 8 , softmax</t>
-  </si>
-  <si>
     <t>Batch Size</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>Dense, 90, relu</t>
-  </si>
-  <si>
-    <t>Dense, 8, softmax</t>
   </si>
   <si>
     <t>ID</t>
@@ -187,13 +181,40 @@
   <si>
     <t>MaxPool2D, (3,3)</t>
   </si>
+  <si>
+    <t>in Top 3</t>
+  </si>
+  <si>
+    <t>Batch Normalization</t>
+  </si>
+  <si>
+    <t>Conv2D, F:32, krnl:(4,4), swish</t>
+  </si>
+  <si>
+    <t>Conv2D, F:64, krnl:(3,3), swish</t>
+  </si>
+  <si>
+    <t>Dense, 7 , softmax</t>
+  </si>
+  <si>
+    <t>Conv2D, F:128, krnl:(3,3), swish</t>
+  </si>
+  <si>
+    <t>Dense, 512, swish</t>
+  </si>
+  <si>
+    <t>Dropout, 0.5</t>
+  </si>
+  <si>
+    <t>Dense, 128, swish</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -234,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -265,51 +286,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -364,6 +340,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -374,13 +359,91 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -394,9 +457,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -404,9 +465,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -416,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,7 +483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -438,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -448,28 +506,20 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -484,23 +534,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478E24B-505E-4926-95BF-D6609840526E}">
-  <dimension ref="A1:AA136"/>
+  <dimension ref="A1:AM137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,1343 +883,1811 @@
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="12.42578125" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="29" width="10.140625" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="12.42578125" customWidth="1"/>
+    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK1" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>2</v>
+      </c>
+      <c r="F2" s="12">
+        <v>3</v>
+      </c>
+      <c r="G2" s="12">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12">
+        <v>7</v>
+      </c>
+      <c r="K2" s="12">
+        <v>8</v>
+      </c>
+      <c r="L2" s="12">
+        <v>9</v>
+      </c>
+      <c r="M2" s="12">
+        <v>10</v>
+      </c>
+      <c r="N2" s="12">
+        <v>11</v>
+      </c>
+      <c r="O2" s="12">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>14</v>
+      </c>
+      <c r="R2" s="12">
+        <v>15</v>
+      </c>
+      <c r="S2" s="12">
+        <v>16</v>
+      </c>
+      <c r="T2" s="14">
+        <v>17</v>
+      </c>
+      <c r="U2" s="12">
+        <v>18</v>
+      </c>
+      <c r="V2" s="12">
+        <v>19</v>
+      </c>
+      <c r="W2" s="14">
+        <v>20</v>
+      </c>
+      <c r="X2" s="12">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>26</v>
+      </c>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="23"/>
+    </row>
+    <row r="3" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7">
+        <v>50</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>1.0768</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>2.2168999999999999</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>21</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="14" t="s">
+      <c r="D5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>50</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>100</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="AI5" s="11">
+        <v>21477</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>1.84</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>1.82</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>20</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>1.5773999999999999</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>1.756</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+    </row>
+    <row r="8" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>20</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>1.6458999999999999</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>1.7406999999999999</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="27">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19">
-        <v>2</v>
-      </c>
-      <c r="F2" s="19">
-        <v>3</v>
-      </c>
-      <c r="G2" s="19">
-        <v>4</v>
-      </c>
-      <c r="H2" s="19">
-        <v>5</v>
-      </c>
-      <c r="I2" s="19">
-        <v>6</v>
-      </c>
-      <c r="J2" s="19">
-        <v>7</v>
-      </c>
-      <c r="K2" s="19">
-        <v>8</v>
-      </c>
-      <c r="L2" s="19">
+      <c r="AF10" s="7">
+        <v>50</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>1.5104</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>1.5892999999999999</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>50</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>25</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>1.6741999999999999</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="19">
+      <c r="F12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="19">
+      <c r="N12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>50</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>25</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>1.5996999999999999</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="28">
-        <v>14</v>
-      </c>
-      <c r="R2" s="24"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="20"/>
-    </row>
-    <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="I13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" s="7">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="AG13" s="7">
+        <v>25</v>
+      </c>
+      <c r="AH13" s="7">
+        <v>1.1039000000000001</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>1.4695</v>
+      </c>
+      <c r="AJ13" s="7">
+        <v>0.78139999999999998</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+    </row>
+    <row r="14" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>64</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>25</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>1.2436</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>1.5238</v>
+      </c>
+      <c r="AJ14" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+    </row>
+    <row r="15" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="I15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="11">
-        <v>50</v>
-      </c>
-      <c r="U3" s="11">
-        <v>100</v>
-      </c>
-      <c r="V3" s="11">
-        <v>0.83840000000000003</v>
-      </c>
-      <c r="W3" s="12">
-        <v>21477</v>
-      </c>
-      <c r="X3" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="8">
-        <v>6</v>
-      </c>
-      <c r="U4" s="8">
-        <v>10</v>
-      </c>
-      <c r="V4" s="8">
-        <v>1.84</v>
-      </c>
-      <c r="W4" s="8">
-        <v>1.82</v>
-      </c>
-      <c r="X4" s="8">
-        <v>0.49</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>0.51</v>
-      </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-    </row>
-    <row r="5" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="8">
-        <v>6</v>
-      </c>
-      <c r="U5" s="8">
-        <v>20</v>
-      </c>
-      <c r="V5" s="8">
-        <v>1.5773999999999999</v>
-      </c>
-      <c r="W5" s="8">
-        <v>1.756</v>
-      </c>
-      <c r="X5" s="8">
+      <c r="X15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>64</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>25</v>
+      </c>
+      <c r="AH15" s="7">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>1.0759000000000001</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="AK15" s="7">
         <v>0.62</v>
       </c>
-      <c r="Y5" s="8">
-        <v>0.54</v>
-      </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="8">
-        <v>4</v>
-      </c>
-      <c r="U6" s="8">
-        <v>20</v>
-      </c>
-      <c r="V6" s="8">
-        <v>1.6458999999999999</v>
-      </c>
-      <c r="W6" s="8">
-        <v>1.7406999999999999</v>
-      </c>
-      <c r="X6" s="8">
-        <v>0.59</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>0.53</v>
-      </c>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-    </row>
-    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8">
-        <v>50</v>
-      </c>
-      <c r="V7" s="8">
-        <v>1.0768</v>
-      </c>
-      <c r="W7" s="8">
-        <v>2.2168999999999999</v>
-      </c>
-      <c r="X7" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-    </row>
-    <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="8">
-        <v>50</v>
-      </c>
-      <c r="U9" s="8">
-        <v>10</v>
-      </c>
-      <c r="V9" s="8">
-        <v>1.5104</v>
-      </c>
-      <c r="W9" s="9">
-        <v>1.5892999999999999</v>
-      </c>
-      <c r="X9" s="8">
-        <v>0.64</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>0.62</v>
-      </c>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-    </row>
-    <row r="10" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>32</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" s="8">
-        <v>50</v>
-      </c>
-      <c r="U10" s="8">
-        <v>25</v>
-      </c>
-      <c r="V10" s="8">
-        <v>0.77190000000000003</v>
-      </c>
-      <c r="W10" s="8">
-        <v>1.6741999999999999</v>
-      </c>
-      <c r="X10" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>0.65</v>
-      </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-    </row>
-    <row r="11" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T11" s="8">
-        <v>50</v>
-      </c>
-      <c r="U11" s="8">
-        <v>25</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0.87980000000000003</v>
-      </c>
-      <c r="W11" s="8">
-        <v>1.5996999999999999</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0.85</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>0.66</v>
-      </c>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-    </row>
-    <row r="12" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T12" s="8">
-        <v>10</v>
-      </c>
-      <c r="U12" s="8">
-        <v>25</v>
-      </c>
-      <c r="V12" s="8">
-        <v>1.1039000000000001</v>
-      </c>
-      <c r="W12" s="8">
-        <v>1.4695</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0.78139999999999998</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>0.66</v>
-      </c>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-    </row>
-    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T13" s="8">
-        <v>64</v>
-      </c>
-      <c r="U13" s="8">
-        <v>25</v>
-      </c>
-      <c r="V13" s="5">
-        <v>1.2436</v>
-      </c>
-      <c r="W13" s="5">
-        <v>1.5238</v>
-      </c>
-      <c r="X13" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+    </row>
+    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+    </row>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2194,257 +2712,288 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+    </row>
+    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+    </row>
+    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+    </row>
+    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+    </row>
+    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AJ36" s="3"/>
+      <c r="AK36" s="3"/>
+    </row>
+    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+    </row>
+    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+    </row>
+    <row r="42" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2461,8 +3010,20 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+    </row>
+    <row r="43" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2479,8 +3040,20 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+    </row>
+    <row r="44" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2497,8 +3070,20 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+    </row>
+    <row r="45" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2515,8 +3100,20 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+    </row>
+    <row r="46" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2533,8 +3130,20 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+    </row>
+    <row r="47" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2551,8 +3160,20 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+    </row>
+    <row r="48" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2569,8 +3190,20 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2587,8 +3220,20 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2605,8 +3250,20 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2623,8 +3280,20 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2641,8 +3310,20 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2659,8 +3340,20 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2677,8 +3370,20 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2695,8 +3400,20 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2713,8 +3430,20 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2731,8 +3460,20 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2749,8 +3490,20 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2767,8 +3520,20 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2785,8 +3550,20 @@
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2803,8 +3580,20 @@
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2821,8 +3610,20 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2839,8 +3640,20 @@
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2857,8 +3670,20 @@
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2875,8 +3700,20 @@
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2893,8 +3730,20 @@
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2911,8 +3760,20 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2929,8 +3790,20 @@
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2947,8 +3820,20 @@
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2965,8 +3850,20 @@
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2983,8 +3880,20 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3001,8 +3910,20 @@
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3019,8 +3940,20 @@
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3037,8 +3970,20 @@
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3055,8 +4000,20 @@
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3073,8 +4030,20 @@
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3091,8 +4060,20 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3109,8 +4090,20 @@
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3127,8 +4120,20 @@
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+    </row>
+    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3145,8 +4150,20 @@
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+    </row>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3163,8 +4180,20 @@
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3181,8 +4210,20 @@
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+    </row>
+    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3199,8 +4240,20 @@
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3217,8 +4270,20 @@
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+    </row>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3235,8 +4300,20 @@
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+    </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3253,8 +4330,20 @@
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+    </row>
+    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3271,8 +4360,20 @@
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+    </row>
+    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3289,8 +4390,20 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+    </row>
+    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3307,8 +4420,20 @@
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3325,8 +4450,20 @@
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3343,8 +4480,20 @@
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+    </row>
+    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3361,8 +4510,20 @@
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+    </row>
+    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3379,8 +4540,20 @@
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3397,8 +4570,20 @@
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+    </row>
+    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3415,8 +4600,20 @@
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
+    </row>
+    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -3433,8 +4630,20 @@
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+    </row>
+    <row r="97" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -3451,8 +4660,20 @@
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+    </row>
+    <row r="98" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3469,8 +4690,20 @@
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
+    </row>
+    <row r="99" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3487,8 +4720,20 @@
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
+    </row>
+    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3505,8 +4750,20 @@
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+    </row>
+    <row r="101" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3523,8 +4780,20 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+    </row>
+    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3541,8 +4810,20 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+    </row>
+    <row r="103" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -3559,8 +4840,20 @@
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+    </row>
+    <row r="104" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -3577,8 +4870,20 @@
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+      <c r="AC104" s="2"/>
+    </row>
+    <row r="105" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -3595,8 +4900,20 @@
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+      <c r="AC105" s="2"/>
+    </row>
+    <row r="106" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -3613,8 +4930,20 @@
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+    </row>
+    <row r="107" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -3631,8 +4960,20 @@
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+    </row>
+    <row r="108" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -3649,8 +4990,20 @@
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+    </row>
+    <row r="109" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -3667,8 +5020,20 @@
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+    </row>
+    <row r="110" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -3685,8 +5050,20 @@
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+    </row>
+    <row r="111" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -3703,8 +5080,20 @@
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+    </row>
+    <row r="112" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -3721,8 +5110,20 @@
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+    </row>
+    <row r="113" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -3739,8 +5140,20 @@
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+    </row>
+    <row r="114" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -3757,8 +5170,20 @@
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
+    </row>
+    <row r="115" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -3775,8 +5200,20 @@
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+    </row>
+    <row r="116" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -3793,8 +5230,20 @@
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
       <c r="Q116" s="2"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+    </row>
+    <row r="117" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -3811,8 +5260,20 @@
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
       <c r="Q117" s="2"/>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
+    </row>
+    <row r="118" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -3829,8 +5290,20 @@
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
+      <c r="AB118" s="2"/>
+      <c r="AC118" s="2"/>
+    </row>
+    <row r="119" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -3847,8 +5320,20 @@
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
+      <c r="AB119" s="2"/>
+      <c r="AC119" s="2"/>
+    </row>
+    <row r="120" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -3865,8 +5350,20 @@
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
       <c r="Q120" s="2"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
+      <c r="AC120" s="2"/>
+    </row>
+    <row r="121" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -3883,8 +5380,20 @@
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
       <c r="Q121" s="2"/>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
+      <c r="AB121" s="2"/>
+      <c r="AC121" s="2"/>
+    </row>
+    <row r="122" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -3901,8 +5410,20 @@
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
       <c r="Q122" s="2"/>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="2"/>
+      <c r="AB122" s="2"/>
+      <c r="AC122" s="2"/>
+    </row>
+    <row r="123" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -3919,8 +5440,20 @@
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
+      <c r="AB123" s="2"/>
+      <c r="AC123" s="2"/>
+    </row>
+    <row r="124" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -3937,8 +5470,20 @@
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="2"/>
+      <c r="AC124" s="2"/>
+    </row>
+    <row r="125" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -3955,8 +5500,20 @@
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+      <c r="AC125" s="2"/>
+    </row>
+    <row r="126" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -3973,8 +5530,20 @@
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
+      <c r="AB126" s="2"/>
+      <c r="AC126" s="2"/>
+    </row>
+    <row r="127" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -3991,8 +5560,20 @@
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
       <c r="Q127" s="2"/>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2"/>
+      <c r="V127" s="2"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="2"/>
+      <c r="Z127" s="2"/>
+      <c r="AA127" s="2"/>
+      <c r="AB127" s="2"/>
+      <c r="AC127" s="2"/>
+    </row>
+    <row r="128" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -4009,8 +5590,20 @@
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
       <c r="Q128" s="2"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
+      <c r="AB128" s="2"/>
+      <c r="AC128" s="2"/>
+    </row>
+    <row r="129" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -4027,8 +5620,20 @@
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
       <c r="Q129" s="2"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
+      <c r="AB129" s="2"/>
+      <c r="AC129" s="2"/>
+    </row>
+    <row r="130" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -4045,8 +5650,20 @@
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
       <c r="Q130" s="2"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
+      <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
+      <c r="AB130" s="2"/>
+      <c r="AC130" s="2"/>
+    </row>
+    <row r="131" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -4063,8 +5680,20 @@
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
       <c r="Q131" s="2"/>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
+      <c r="W131" s="2"/>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="2"/>
+      <c r="Z131" s="2"/>
+      <c r="AA131" s="2"/>
+      <c r="AB131" s="2"/>
+      <c r="AC131" s="2"/>
+    </row>
+    <row r="132" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -4081,8 +5710,20 @@
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
       <c r="Q132" s="2"/>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="2"/>
+      <c r="Y132" s="2"/>
+      <c r="Z132" s="2"/>
+      <c r="AA132" s="2"/>
+      <c r="AB132" s="2"/>
+      <c r="AC132" s="2"/>
+    </row>
+    <row r="133" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -4099,8 +5740,20 @@
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
       <c r="Q133" s="2"/>
-    </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="V133" s="2"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="2"/>
+      <c r="Y133" s="2"/>
+      <c r="Z133" s="2"/>
+      <c r="AA133" s="2"/>
+      <c r="AB133" s="2"/>
+      <c r="AC133" s="2"/>
+    </row>
+    <row r="134" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -4117,8 +5770,20 @@
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
       <c r="Q134" s="2"/>
-    </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
+      <c r="W134" s="2"/>
+      <c r="X134" s="2"/>
+      <c r="Y134" s="2"/>
+      <c r="Z134" s="2"/>
+      <c r="AA134" s="2"/>
+      <c r="AB134" s="2"/>
+      <c r="AC134" s="2"/>
+    </row>
+    <row r="135" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -4135,8 +5800,20 @@
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="V135" s="2"/>
+      <c r="W135" s="2"/>
+      <c r="X135" s="2"/>
+      <c r="Y135" s="2"/>
+      <c r="Z135" s="2"/>
+      <c r="AA135" s="2"/>
+      <c r="AB135" s="2"/>
+      <c r="AC135" s="2"/>
+    </row>
+    <row r="136" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -4153,21 +5830,63 @@
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2"/>
+      <c r="V136" s="2"/>
+      <c r="W136" s="2"/>
+      <c r="X136" s="2"/>
+      <c r="Y136" s="2"/>
+      <c r="Z136" s="2"/>
+      <c r="AA136" s="2"/>
+      <c r="AB136" s="2"/>
+      <c r="AC136" s="2"/>
+    </row>
+    <row r="137" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="2"/>
+      <c r="Y137" s="2"/>
+      <c r="Z137" s="2"/>
+      <c r="AA137" s="2"/>
+      <c r="AB137" s="2"/>
+      <c r="AC137" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:Q1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="D1:AC1"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AH1:AH2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
